--- a/Tabellozze_ISTAT/Vendite_READY_test.xlsx
+++ b/Tabellozze_ISTAT/Vendite_READY_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Tabellozze_ISTAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A97147-E35E-0142-AFD6-FA2BE8DFF454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605D543-8350-CD46-9F1A-B5982B7E55A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15280" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="28300" windowHeight="15280" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C38" sqref="C38:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
         <v>94.4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>92.1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>109.6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>94.6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>102.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>102.8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>104.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>104.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>101</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>104.4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>119.2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>96.6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>92.2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>102.4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>101.8</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>103.4</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>108.2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>105.9</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>100.7</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>105.7</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>102.1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>119.1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>98.5</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>100.2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>108.4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>108.1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>105.9</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>104.3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>106.9</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>106.7</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>104.7</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>111.1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>104.2</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>94.4</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>82.4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>93.6</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>93.1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>101.3</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>99.8</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>105.1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>92</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>98.9</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>105.8</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>108.1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>131.6</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>94.7</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>83.7</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>93.1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>93.6</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>99.1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>101.6</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>107.1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>92.6</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>100.6</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>106.6</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>108.3</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>133.4</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>95.6</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>86.8</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>56.3</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>44.6</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>96.6</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>95</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>93.7</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>100.1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>107.7</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>91.2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>120.9</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
